--- a/s2cDNASample/s2cDNASample_1601.xlsx
+++ b/s2cDNASample/s2cDNASample_1601.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">06.07.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Retrofitted_1601</t>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">E7420L</t>
@@ -177,7 +177,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G24"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
